--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 68519-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 68519-2021.xlsx", "A 68519-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 68519-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 68519-2021.png", "A 68519-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 68519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 68519-2021.docx", "A 68519-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 68519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 68519-2021.docx", "A 68519-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 68519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 68519-2021.docx", "A 68519-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 68519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 68519-2021.docx", "A 68519-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,27 +721,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 5620-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 5620-2020.xlsx", "A 5620-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 5620-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 5620-2020.png", "A 5620-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 5620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 5620-2020.docx", "A 5620-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 5620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 5620-2020.docx", "A 5620-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 5620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 5620-2020.docx", "A 5620-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 5620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 5620-2020.docx", "A 5620-2020")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -807,27 +807,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 39460-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 39460-2021.xlsx", "A 39460-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 39460-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 39460-2021.png", "A 39460-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 39460-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 39460-2021.docx", "A 39460-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 39460-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 39460-2021.docx", "A 39460-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 39460-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 39460-2021.docx", "A 39460-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 39460-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 39460-2021.docx", "A 39460-2021")</f>
         <v/>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 2998-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 2998-2019.xlsx", "A 2998-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 2998-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 2998-2019.png", "A 2998-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 2998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 2998-2019.docx", "A 2998-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 2998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 2998-2019.docx", "A 2998-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 2998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 2998-2019.docx", "A 2998-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 2998-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 2998-2019.docx", "A 2998-2019")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,27 +982,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 10777-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 10777-2019.xlsx", "A 10777-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 10777-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 10777-2019.png", "A 10777-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 10777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 10777-2019.docx", "A 10777-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 10777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 10777-2019.docx", "A 10777-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 10777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 10777-2019.docx", "A 10777-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 10777-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 10777-2019.docx", "A 10777-2019")</f>
         <v/>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 13597-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 13597-2021.xlsx", "A 13597-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 13597-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 13597-2021.png", "A 13597-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 13597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 13597-2021.docx", "A 13597-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 13597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 13597-2021.docx", "A 13597-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 13597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 13597-2021.docx", "A 13597-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 13597-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 13597-2021.docx", "A 13597-2021")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,31 +1152,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 18264-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/artfynd/A 18264-2022.xlsx", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 18264-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/kartor/A 18264-2022.png", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/knärot/A 18264-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/knärot/A 18264-2022.png", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 18264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomål/A 18264-2022.docx", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 18264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/klagomålsmail/A 18264-2022.docx", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 18264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsyn/A 18264-2022.docx", "A 18264-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 18264-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TROLLHATTAN/tillsynsmail/A 18264-2022.docx", "A 18264-2022")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>

--- a/Översikt TROLLHÄTTAN.xlsx
+++ b/Översikt TROLLHÄTTAN.xlsx
@@ -572,7 +572,7 @@
         <v>44529</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43861</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44414</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>43472</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43514</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44274</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>44685</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43396</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43397</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>43397</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43423</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43425</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43434</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43437</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43437</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>43445</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43448</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43448</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43452</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>43474</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>43474</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>43480</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>43487</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43489</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43514</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43514</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>43524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43525</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43529</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43529</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43566</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43566</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43578</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43599</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43600</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43601</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43612</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43619</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43651</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43682</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43693</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>43703</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>43704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43706</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>43721</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>43726</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43737</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>43739</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>43744</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>43746</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>43754</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>43754</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43756</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43756</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43773</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43774</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43790</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43790</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43797</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43809</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43845</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43846</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43861</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>43861</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>43866</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43871</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43874</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>43878</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>43907</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>43909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>43936</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>43942</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>43993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44004</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44011</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44020</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44046</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44057</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44088</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44090</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44091</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44102</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44124</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44138</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44151</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44152</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44186</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44194</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44214</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44214</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44217</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44224</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44225</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44225</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44228</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44229</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44235</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>44259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>44280</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44281</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>44308</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>44308</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>44309</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>44312</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44314</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>44316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>44319</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>44330</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>44340</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>44348</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>44368</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>44378</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>44379</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>44384</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>44385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44421</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>44422</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>44432</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44468</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44470</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44473</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44487</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44514</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44516</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44522</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44523</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>44529</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>44572</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>44579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>44622</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>44648</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44648</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44650</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44677</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>44677</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44678</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>44692</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>44693</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>44726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44743</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>44757</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44784</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>44798</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44808</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>44825</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44827</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44827</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44830</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44851</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44869</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44879</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44879</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>44904</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44904</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44923</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44923</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44946</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44957</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44958</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44960</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44960</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44973</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>44983</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>44992</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45001</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>45001</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>45002</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>45016</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>45021</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45021</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45021</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>45027</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>45029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>45029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>45044</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45044</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>45047</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>45054</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45058</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>45075</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>45076</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12784,7 +12784,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>45139</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>45162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45162</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45162</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45162</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
